--- a/docs/campos_datasets.xlsx
+++ b/docs/campos_datasets.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicoruizruiz/Documents/TheBridge_Bootcamp/docs/ml_entrega/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Github\local\rain_project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3898C1-194F-AF49-852F-6A9BCB1AF54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0442D436-0FC0-4C3A-B1B8-F8B2DACE244C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="-17860" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{A01F0FBC-ED14-9243-BD10-4ABB22E45945}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A01F0FBC-ED14-9243-BD10-4ABB22E45945}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Australia" sheetId="1" r:id="rId1"/>
+    <sheet name="AEMET" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -388,6 +388,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -397,14 +405,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,16 +725,16 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,7 +756,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,73 +768,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9" t="s">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
@@ -842,11 +842,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
@@ -854,8 +854,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -868,8 +868,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
@@ -880,8 +880,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
@@ -892,8 +892,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>0.375</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -906,8 +906,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
@@ -918,8 +918,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
@@ -930,8 +930,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -942,8 +942,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -954,8 +954,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
@@ -966,8 +966,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>0.625</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -980,8 +980,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
@@ -992,8 +992,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
@@ -1004,8 +1004,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1016,8 +1016,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1028,8 +1028,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1042,6 +1042,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="A4:A5"/>
@@ -1050,11 +1055,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1065,17 +1065,17 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="2.296875" customWidth="1"/>
     <col min="3" max="3" width="135.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>55</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>56</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>65</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
